--- a/src/predicciones/holt_winters/producto_150.xlsx
+++ b/src/predicciones/holt_winters/producto_150.xlsx
@@ -14,7 +14,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Periodo 1</t>
+  </si>
+  <si>
+    <t>Periodo 2</t>
+  </si>
+  <si>
+    <t>Periodo 3</t>
+  </si>
+  <si>
+    <t>Periodo 4</t>
+  </si>
+  <si>
+    <t>Periodo 5</t>
+  </si>
+  <si>
+    <t>Periodo 6</t>
+  </si>
+  <si>
+    <t>Periodo 7</t>
+  </si>
+  <si>
+    <t>Periodo 8</t>
+  </si>
+  <si>
+    <t>Periodo 9</t>
+  </si>
+  <si>
+    <t>Periodo 10</t>
+  </si>
+  <si>
+    <t>Periodo 11</t>
+  </si>
+  <si>
+    <t>Periodo 12</t>
+  </si>
+  <si>
+    <t>Periodo 13</t>
+  </si>
+  <si>
+    <t>Periodo 14</t>
+  </si>
+  <si>
+    <t>Periodo 15</t>
+  </si>
+  <si>
+    <t>Periodo 16</t>
+  </si>
+  <si>
+    <t>Periodo 17</t>
+  </si>
+  <si>
+    <t>Periodo 18</t>
+  </si>
+  <si>
+    <t>Periodo 19</t>
+  </si>
+  <si>
+    <t>Periodo 20</t>
+  </si>
+  <si>
+    <t>Periodo 21</t>
+  </si>
+  <si>
+    <t>Periodo 22</t>
+  </si>
+  <si>
+    <t>Periodo 23</t>
+  </si>
+  <si>
+    <t>Periodo 24</t>
+  </si>
+  <si>
+    <t>Periodo 25</t>
+  </si>
+  <si>
+    <t>Periodo 26</t>
+  </si>
+  <si>
+    <t>Periodo 27</t>
+  </si>
+  <si>
+    <t>Periodo 28</t>
+  </si>
+  <si>
+    <t>Periodo 29</t>
+  </si>
+  <si>
+    <t>Periodo 30</t>
+  </si>
   <si>
     <t>predicciones</t>
   </si>
@@ -89,9 +179,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,76 +474,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:34">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:34">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>3</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2">
+        <v>2.071486600050291</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="2">
         <v>45016</v>
       </c>
-      <c r="B2">
-        <v>1.980123086800181</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:34">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1.071469897411675</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="2">
         <v>45046</v>
       </c>
-      <c r="B3">
-        <v>1.066965248614788</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>45077</v>
+    <row r="4" spans="1:34">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2.119428464086825</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>1.071462436377244</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>45107</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>45107</v>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2.031174011504188</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1.071463911168741</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2">
         <v>45138</v>
-      </c>
-      <c r="B6">
-        <v>1.911590263801263</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
